--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H2">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I2">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>1.412024326441667</v>
+        <v>0.6027364339920001</v>
       </c>
       <c r="R2">
-        <v>12.708218937975</v>
+        <v>5.424627905928001</v>
       </c>
       <c r="S2">
-        <v>0.0295489125538397</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="T2">
-        <v>0.03943801996862717</v>
+        <v>0.06242884486533885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H3">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I3">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>14.58498699298833</v>
+        <v>7.022813072146667</v>
       </c>
       <c r="R3">
-        <v>131.264882936895</v>
+        <v>63.20531764931999</v>
       </c>
       <c r="S3">
-        <v>0.3052146462240896</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="T3">
-        <v>0.4073605514440151</v>
+        <v>0.7273927426214574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H4">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I4">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.2646206581225555</v>
+        <v>0.130080578936</v>
       </c>
       <c r="R4">
-        <v>2.381585923103</v>
+        <v>1.170725210424</v>
       </c>
       <c r="S4">
-        <v>0.005537618963341516</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="T4">
-        <v>0.007390888813826496</v>
+        <v>0.01347318632889677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H5">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I5">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>6.386526465025333</v>
+        <v>2.733860212673334</v>
       </c>
       <c r="R5">
-        <v>38.319158790152</v>
+        <v>16.40316127604</v>
       </c>
       <c r="S5">
-        <v>0.1336484850182308</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="T5">
-        <v>0.1189176671351728</v>
+        <v>0.1887743138075849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H6">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I6">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.217527112723</v>
+        <v>0.07657117242133334</v>
       </c>
       <c r="R6">
-        <v>1.957744014507</v>
+        <v>0.689140551792</v>
       </c>
       <c r="S6">
-        <v>0.004552109699228117</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="T6">
-        <v>0.006075560069780351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2281945</v>
-      </c>
-      <c r="H7">
-        <v>0.456389</v>
-      </c>
-      <c r="I7">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J7">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.743825</v>
-      </c>
-      <c r="N7">
-        <v>20.231475</v>
-      </c>
-      <c r="O7">
-        <v>0.06175298453338176</v>
-      </c>
-      <c r="P7">
-        <v>0.06809253940846915</v>
-      </c>
-      <c r="Q7">
-        <v>1.5389037739625</v>
-      </c>
-      <c r="R7">
-        <v>9.233422643775</v>
-      </c>
-      <c r="S7">
-        <v>0.03220407197954205</v>
-      </c>
-      <c r="T7">
-        <v>0.02865451943984199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2281945</v>
-      </c>
-      <c r="H8">
-        <v>0.456389</v>
-      </c>
-      <c r="I8">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J8">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>69.657865</v>
-      </c>
-      <c r="N8">
-        <v>208.973595</v>
-      </c>
-      <c r="O8">
-        <v>0.6378547871531949</v>
-      </c>
-      <c r="P8">
-        <v>0.7033368922862506</v>
-      </c>
-      <c r="Q8">
-        <v>15.8955416747425</v>
-      </c>
-      <c r="R8">
-        <v>95.37325004845501</v>
-      </c>
-      <c r="S8">
-        <v>0.3326401409291052</v>
-      </c>
-      <c r="T8">
-        <v>0.2959763408422355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2281945</v>
-      </c>
-      <c r="H9">
-        <v>0.456389</v>
-      </c>
-      <c r="I9">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J9">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.263827666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.791482999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.01157282852869501</v>
-      </c>
-      <c r="P9">
-        <v>0.01276089388411081</v>
-      </c>
-      <c r="Q9">
-        <v>0.2883985224811667</v>
-      </c>
-      <c r="R9">
-        <v>1.730391134887</v>
-      </c>
-      <c r="S9">
-        <v>0.006035209565353491</v>
-      </c>
-      <c r="T9">
-        <v>0.005370005070284317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2281945</v>
-      </c>
-      <c r="H10">
-        <v>0.456389</v>
-      </c>
-      <c r="I10">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J10">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>30.502036</v>
-      </c>
-      <c r="N10">
-        <v>61.004072</v>
-      </c>
-      <c r="O10">
-        <v>0.2793061441162328</v>
-      </c>
-      <c r="P10">
-        <v>0.205319788929729</v>
-      </c>
-      <c r="Q10">
-        <v>6.960396854002001</v>
-      </c>
-      <c r="R10">
-        <v>27.841587416008</v>
-      </c>
-      <c r="S10">
-        <v>0.1456576590980019</v>
-      </c>
-      <c r="T10">
-        <v>0.08640212179455627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2281945</v>
-      </c>
-      <c r="H11">
-        <v>0.456389</v>
-      </c>
-      <c r="I11">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J11">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.038909</v>
-      </c>
-      <c r="N11">
-        <v>3.116727</v>
-      </c>
-      <c r="O11">
-        <v>0.009513255668495419</v>
-      </c>
-      <c r="P11">
-        <v>0.01048988549144043</v>
-      </c>
-      <c r="Q11">
-        <v>0.2370733198005</v>
-      </c>
-      <c r="R11">
-        <v>1.422439918803</v>
-      </c>
-      <c r="S11">
-        <v>0.004961145969267301</v>
-      </c>
-      <c r="T11">
-        <v>0.004414325421660081</v>
+        <v>0.007930912376722157</v>
       </c>
     </row>
   </sheetData>
